--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>278489.3160512774</v>
+        <v>276050.8429515307</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.4622716988439</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>282.4605077549085</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>316.2935965110176</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>91.08064078754704</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733024</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>302.9446243547897</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>20.04683143499272</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>77.84724700848633</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.3228726519647</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>93.52676208877459</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>358.9477566937055</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.82802799868936</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>74.53917159609126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>72.80978492054835</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>285.7119908454212</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.9268484343554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>2.813978415465053</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>91.87204320893622</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784682</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1498.919245669962</v>
+        <v>1418.660964416651</v>
       </c>
       <c r="C2" t="n">
-        <v>1498.919245669962</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>1140.653547063211</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>1140.653547063211</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1729.851903759797</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>1729.851903759797</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>1729.851903759797</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>1729.851903759797</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>1729.851903759797</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3233.605174349022</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>3011.838558918548</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2722.735692044192</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>2468.051203838305</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>2178.634033801344</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X4" t="n">
-        <v>1950.644482903327</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1729.851903759797</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1252.833343223196</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="C5" t="n">
-        <v>1252.833343223196</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>894.5676446164455</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>508.7793920182012</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>501.8338912689978</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>86.76144111399424</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>86.76144111399424</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524209</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263129</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287318</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4650,34 +4650,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.5121164321834</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X7" t="n">
-        <v>1065.372881705156</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1565.440264581603</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1565.440264581603</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1565.440264581603</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1179.652011983359</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>768.666107193751</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176919</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906804</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645725</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1952.040104645725</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4875,22 +4875,22 @@
         <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541191</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335304</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>782.492950298343</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003256</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>532.4548862703364</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368213</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>481.4479471244855</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>481.4479471244855</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>334.5579996265751</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3619003414551</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.1760994014371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2377.074977392799</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2157.473512415741</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7202,16 +7202,16 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7415,16 +7415,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>258.2715699646367</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>57.26675306205234</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462276</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856647</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457060101</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>67.48492792567551</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8110074911697893</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.2123075861795</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1061489.458897255</v>
+        <v>1061489.458897254</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1061489.458897255</v>
+        <v>1061489.458897254</v>
       </c>
     </row>
     <row r="13">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019035</v>
+        <v>335917.9865019032</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
@@ -26323,7 +26323,7 @@
         <v>363215.9698605028</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605026</v>
@@ -26332,19 +26332,19 @@
         <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="J2" t="n">
+        <v>363215.969860503</v>
+      </c>
+      <c r="K2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605027</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="M2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605026</v>
@@ -26353,7 +26353,7 @@
         <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.712987108883681e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551165</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>49629.01520551657</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26442,16 +26442,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1150389.714992599</v>
+        <v>-1150576.108381138</v>
       </c>
       <c r="C6" t="n">
-        <v>169350.9569593524</v>
+        <v>169350.9569593528</v>
       </c>
       <c r="D6" t="n">
-        <v>169350.9569593522</v>
+        <v>169350.9569593526</v>
       </c>
       <c r="E6" t="n">
-        <v>-76315.88591758962</v>
+        <v>-76350.62384302572</v>
       </c>
       <c r="F6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643294</v>
       </c>
       <c r="G6" t="n">
-        <v>249096.5758897651</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="H6" t="n">
-        <v>249096.5758897649</v>
+        <v>249061.8379643294</v>
       </c>
       <c r="I6" t="n">
-        <v>249096.5758897653</v>
+        <v>249061.8379643295</v>
       </c>
       <c r="J6" t="n">
-        <v>31565.37349248758</v>
+        <v>31530.63556705236</v>
       </c>
       <c r="K6" t="n">
-        <v>249096.5758897651</v>
+        <v>249061.8379643291</v>
       </c>
       <c r="L6" t="n">
-        <v>249096.5758897651</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="M6" t="n">
-        <v>164041.5479542535</v>
+        <v>164006.8100288177</v>
       </c>
       <c r="N6" t="n">
-        <v>249096.575889765</v>
+        <v>249061.8379643294</v>
       </c>
       <c r="O6" t="n">
-        <v>249096.5758897651</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="P6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643293</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.54563095404675</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>90.58244923069384</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>98.68838454389486</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.85778156328863</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>62.32826741621784</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>21.53009833793323</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>111.9217783229556</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.26178070013009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>261.1562795319084</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>51.97396895974794</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.7566253534054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.632216393534616e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,28 +32072,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>297.1808238847177</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32737,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>191.3323016788565</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33023,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104083</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>632.587927456874</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3393849103587</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,31 +36352,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>59.99058959552318</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707497</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348556</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
